--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col4a3-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col4a3-Itgav.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.520183</v>
+        <v>0.6955149999999999</v>
       </c>
       <c r="H2">
-        <v>1.560549</v>
+        <v>2.086545</v>
       </c>
       <c r="I2">
-        <v>0.03656880080220595</v>
+        <v>0.04699474681458952</v>
       </c>
       <c r="J2">
-        <v>0.03656880080220595</v>
+        <v>0.04699474681458952</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N2">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q2">
-        <v>8.601540095531998</v>
+        <v>1.894584019191666</v>
       </c>
       <c r="R2">
-        <v>77.41386085978799</v>
+        <v>17.051256172725</v>
       </c>
       <c r="S2">
-        <v>0.00775424287244604</v>
+        <v>0.002178441711456583</v>
       </c>
       <c r="T2">
-        <v>0.007754242872446042</v>
+        <v>0.002178441711456583</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.520183</v>
+        <v>0.6955149999999999</v>
       </c>
       <c r="H3">
-        <v>1.560549</v>
+        <v>2.086545</v>
       </c>
       <c r="I3">
-        <v>0.03656880080220595</v>
+        <v>0.04699474681458952</v>
       </c>
       <c r="J3">
-        <v>0.03656880080220595</v>
+        <v>0.04699474681458952</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>121.861892</v>
       </c>
       <c r="O3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q3">
-        <v>21.13016152207867</v>
+        <v>28.25225793812666</v>
       </c>
       <c r="R3">
-        <v>190.171453698708</v>
+        <v>254.27032144314</v>
       </c>
       <c r="S3">
-        <v>0.0190487287807124</v>
+        <v>0.03248517696328103</v>
       </c>
       <c r="T3">
-        <v>0.0190487287807124</v>
+        <v>0.03248517696328102</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.520183</v>
+        <v>0.6955149999999999</v>
       </c>
       <c r="H4">
-        <v>1.560549</v>
+        <v>2.086545</v>
       </c>
       <c r="I4">
-        <v>0.03656880080220595</v>
+        <v>0.04699474681458952</v>
       </c>
       <c r="J4">
-        <v>0.03656880080220595</v>
+        <v>0.04699474681458952</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N4">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q4">
-        <v>10.832930096907</v>
+        <v>10.724344006775</v>
       </c>
       <c r="R4">
-        <v>97.496370872163</v>
+        <v>96.51909606097499</v>
       </c>
       <c r="S4">
-        <v>0.009765829149047511</v>
+        <v>0.01233112813985191</v>
       </c>
       <c r="T4">
-        <v>0.009765829149047511</v>
+        <v>0.01233112813985191</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>38.954718</v>
       </c>
       <c r="I5">
-        <v>0.912837291778795</v>
+        <v>0.8773676626402658</v>
       </c>
       <c r="J5">
-        <v>0.9128372917787949</v>
+        <v>0.8773676626402658</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N5">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q5">
-        <v>214.713263593224</v>
+        <v>35.37090558551</v>
       </c>
       <c r="R5">
-        <v>1932.419372339016</v>
+        <v>318.33815026959</v>
       </c>
       <c r="S5">
-        <v>0.1935628707587173</v>
+        <v>0.04067038216248803</v>
       </c>
       <c r="T5">
-        <v>0.1935628707587173</v>
+        <v>0.04067038216248803</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>38.954718</v>
       </c>
       <c r="I6">
-        <v>0.912837291778795</v>
+        <v>0.8773676626402658</v>
       </c>
       <c r="J6">
-        <v>0.9128372917787949</v>
+        <v>0.8773676626402658</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>121.861892</v>
       </c>
       <c r="O6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q6">
         <v>527.4550708673841</v>
@@ -818,10 +818,10 @@
         <v>4747.095637806457</v>
       </c>
       <c r="S6">
-        <v>0.475497954829445</v>
+        <v>0.6064814838811092</v>
       </c>
       <c r="T6">
-        <v>0.475497954829445</v>
+        <v>0.6064814838811091</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>38.954718</v>
       </c>
       <c r="I7">
-        <v>0.912837291778795</v>
+        <v>0.8773676626402658</v>
       </c>
       <c r="J7">
-        <v>0.9128372917787949</v>
+        <v>0.8773676626402658</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N7">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q7">
-        <v>270.413640993474</v>
+        <v>200.21796631221</v>
       </c>
       <c r="R7">
-        <v>2433.722768941266</v>
+        <v>1801.96169680989</v>
       </c>
       <c r="S7">
-        <v>0.2437764661906328</v>
+        <v>0.2302157965966685</v>
       </c>
       <c r="T7">
-        <v>0.2437764661906327</v>
+        <v>0.2302157965966685</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.719687</v>
+        <v>1.119424666666667</v>
       </c>
       <c r="H8">
-        <v>2.159061</v>
+        <v>3.358274</v>
       </c>
       <c r="I8">
-        <v>0.05059390741899907</v>
+        <v>0.07563759054514464</v>
       </c>
       <c r="J8">
-        <v>0.05059390741899907</v>
+        <v>0.07563759054514466</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N8">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q8">
-        <v>11.900459235948</v>
+        <v>3.049314657707778</v>
       </c>
       <c r="R8">
-        <v>107.104133123532</v>
+        <v>27.44383191937</v>
       </c>
       <c r="S8">
-        <v>0.01072820101799189</v>
+        <v>0.003506180868421313</v>
       </c>
       <c r="T8">
-        <v>0.01072820101799189</v>
+        <v>0.003506180868421313</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.719687</v>
+        <v>1.119424666666667</v>
       </c>
       <c r="H9">
-        <v>2.159061</v>
+        <v>3.358274</v>
       </c>
       <c r="I9">
-        <v>0.05059390741899907</v>
+        <v>0.07563759054514464</v>
       </c>
       <c r="J9">
-        <v>0.05059390741899907</v>
+        <v>0.07563759054514466</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>121.861892</v>
       </c>
       <c r="O9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q9">
-        <v>29.23413982260134</v>
+        <v>45.47173594382312</v>
       </c>
       <c r="R9">
-        <v>263.107258403412</v>
+        <v>409.2456234944081</v>
       </c>
       <c r="S9">
-        <v>0.02635442232830478</v>
+        <v>0.05228457818124491</v>
       </c>
       <c r="T9">
-        <v>0.02635442232830478</v>
+        <v>0.05228457818124491</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.719687</v>
+        <v>1.119424666666667</v>
       </c>
       <c r="H10">
-        <v>2.159061</v>
+        <v>3.358274</v>
       </c>
       <c r="I10">
-        <v>0.05059390741899907</v>
+        <v>0.07563759054514464</v>
       </c>
       <c r="J10">
-        <v>0.05059390741899907</v>
+        <v>0.07563759054514466</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N10">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q10">
-        <v>14.987646583323</v>
+        <v>17.26072797136333</v>
       </c>
       <c r="R10">
-        <v>134.888819249907</v>
+        <v>155.34655174227</v>
       </c>
       <c r="S10">
-        <v>0.01351128407270241</v>
+        <v>0.01984683149547842</v>
       </c>
       <c r="T10">
-        <v>0.01351128407270241</v>
+        <v>0.01984683149547843</v>
       </c>
     </row>
   </sheetData>
